--- a/aws/notes.xlsx
+++ b/aws/notes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98">
   <si>
     <t>Compute Services</t>
   </si>
@@ -280,18 +280,101 @@
   <si>
     <t>BCE</t>
   </si>
+  <si>
+    <t xml:space="preserve"> A company is migrating a legacy application to Amazon EC2. The application uses a user name and
+password stored in the source code to connect to a MySQL database. The database will be migrated to an
+Amazon RDS for MySQL DB instance. As part of the migration, the company wants to implement a secure
+way to store and automatically rotate the database credentials.
+Which approach meets these requirements?</t>
+  </si>
+  <si>
+    <t>A) Store the database credentials in environment variables in an Amazon Machine Image (AMI). Rotate the credentials by replacing the AMI.
+B) Store the database credentials in AWS Systems Manager Parameter Store. Configure Parameter Store to automatically rotate the credentials.
+C) Store the database credentials in environment variables on the EC2 instances. Rotate the credentials by relaunching the EC2 instances.
+D) Store the database credentials in AWS Secrets Manager. Configure Secrets Manager to automatically rotate the credentials</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>2) A developer is designing a web application that allows the users to post comments and receive nearreal-time feedback.
+Which architectures meet these requirements? (Select TWO.)</t>
+  </si>
+  <si>
+    <t>A) Create an AWS AppSync schema and corresponding APIs. Use an Amazon DynamoDB table as the data store. 
+B) Create a WebSocket API in Amazon API Gateway. Use an AWS Lambda function as the backend and an Amazon DynamoDB table as the data store. 
+C) Create an AWS Elastic Beanstalk application backed by an Amazon RDS database. Configure the application to allow long-lived TCP/IP sockets. 
+D) Create a GraphQL endpoint in Amazon API Gateway. Use an Amazon DynamoDB table as the data store. 
+E) Enable WebSocket on Amazon CloudFront. Use an AWS Lambda function as the origin and an Amazon Aurora DB cluster as the data store.</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>A developer is adding sign-up and sign-in functionality to an application. The application is required to make an API call to a custom analytics solution to log user sign-in events.
+Which combination of actions should the developer take to satisfy these requirements? (Select TWO.)</t>
+  </si>
+  <si>
+    <t>A) Use Amazon Cognito to provide the sign-up and sign-in functionality.
+B) Use AWS IAM to provide the sign-up and sign-in functionality.
+C) Configure an AWS Config rule to make the API call triggered by the post-authentication event.
+D) Invoke an Amazon API Gateway method to make the API call triggered by the post-authentication event.
+E) Execute an AWS Lambda function to make the API call triggered by the post-authentication event</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>4) A company is using Amazon API Gateway for its REST APIs in an AWS account. The security team
+wants to allow only IAM users from another AWS account to access the APIs.
+Which combination of actions should the security team take to satisfy these requirements? (Select TWO.)</t>
+  </si>
+  <si>
+    <t>A) Create an IAM permission policy and attach it to each IAM user. Set the APIs method authorization type to AWS_IAM. Use Signature Version 4 to sign the API requests.
+B) Create an Amazon Cognito user pool and add each IAM user to the pool. Set the method authorization type for the APIs to COGNITO_USER_POOLS. Authenticate using the IAM credentials in Amazon Cognito and add the ID token to the request headers. 
+C) Create an Amazon Cognito identity pool and add each IAM user to the pool. Set the method authorization type for the APIs to COGNITO_USER_POOLS. Authenticate using the IAM credentials in Amazon Cognito and add the access token to the request headers. 
+D) Create a resource policy for the APIs that allows access for each IAM user only. 
+E) Create an Amazon Cognito authorizer for the APIs that allows access for each IAM user only. Set the method authorization type for the APIs to COGNITO_USER_POOLS.</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>5) A developer is building an application that transforms text files to .pdf files. The text files are written to a source Amazon S3 bucket by a separate application. The developer wants to read the files as they arrive in Amazon S3 and convert them to .pdf files using AWS Lambda. The developer has written an IAM policy to allow access to Amazon S3 and Amazon CloudWatch Logs.
+Which actions should the developer take to ensure that the Lambda function has the correct permissions?</t>
+  </si>
+  <si>
+    <r>
+      <t>A) Create a Lambda execution role using AWS IAM. Attach the IAM policy to the role. Assign the Lambda execution role to the Lambda function.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+B) Create a Lambda execution user using AWS IAM. Attach the IAM policy to the user. Assign the Lambda execution user to the Lambda function. 
+C) Create a Lambda execution role using AWS IAM. Attach the IAM policy to the role. Store the IAM role as an environment variable in the Lambda function. 
+D) Create a Lambda execution user using AWS IAM. Attach the IAM policy to the user. Store the IAM user credentials as environment variables in the Lambda function.</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +385,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -330,28 +420,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -365,6 +434,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -374,70 +519,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -449,11 +533,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -478,67 +568,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,18 +718,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -574,85 +730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,17 +780,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -746,11 +830,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,148 +858,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -917,37 +1007,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1277,337 +1367,337 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13970588235294" defaultRowHeight="23.2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="59.9632352941176" style="9" customWidth="1"/>
-    <col min="2" max="2" width="95.7132352941177" style="9" customWidth="1"/>
+    <col min="1" max="1" width="59.9632352941176" style="10" customWidth="1"/>
+    <col min="2" max="2" width="95.7132352941177" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="8" customFormat="1" spans="1:2">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="9" customFormat="1" spans="1:2">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="10" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="10" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="10" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="10" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="10" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="11" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="10" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="10" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="10" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -1620,50 +1710,105 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="63" zoomScaleNormal="63" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="81" defaultRowHeight="180" customHeight="1" outlineLevelRow="2" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="81" defaultRowHeight="180" customHeight="1" outlineLevelRow="7" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="81" style="1" customWidth="1"/>
-    <col min="2" max="2" width="81" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="81" style="1" customWidth="1"/>
+    <col min="2" max="2" width="144.602941176471" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="81" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="3" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
